--- a/Desktop/TutoratoSmart/Fogli di Lavoro/NC_5_FdL_I.xlsx
+++ b/Desktop/TutoratoSmart/Fogli di Lavoro/NC_5_FdL_I.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pagano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pagano\Desktop\TutoratoSmart\Desktop\TutoratoSmart\Fogli di Lavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05E872-BB30-463B-8E39-D4CA45DACDED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BE87C-61DA-484E-94B4-DE5FB7B15B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="759" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="140">
   <si>
     <t>matricola</t>
   </si>
@@ -460,22 +460,10 @@
     <t>Pagano</t>
   </si>
   <si>
-    <t>Oliviero</t>
-  </si>
-  <si>
     <t>Alessia</t>
   </si>
   <si>
-    <t>Somma</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Totale parziale</t>
-  </si>
-  <si>
-    <t>Conteggio</t>
+    <t>Olivieri</t>
   </si>
 </sst>
 </file>
@@ -1194,22 +1182,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1827,22 +1815,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2460,22 +2448,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3093,10 +3081,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3108,7 +3096,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3996,22 +3984,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4629,22 +4617,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5262,22 +5250,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5895,10 +5883,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5910,7 +5898,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6806,7 +6794,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7442,7 +7430,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8072,7 +8060,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8705,7 +8693,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9660,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -9758,10 +9746,10 @@
         <v>512102283</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>138</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="34"/>
@@ -9896,7 +9884,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11265,7 +11253,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11290,7 +11278,7 @@
       </c>
       <c r="D1" s="1" t="str">
         <f>info!C5</f>
-        <v>Oliviero</v>
+        <v>Olivieri</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -12633,7 +12621,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12659,7 +12647,7 @@
       </c>
       <c r="E1" s="8" t="str">
         <f>info!C5</f>
-        <v>Oliviero</v>
+        <v>Olivieri</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12667,20 +12655,17 @@
         <v>16</v>
       </c>
       <c r="B2" s="26">
-        <f>(IF(lavoratore1!F4=1,lavoratore1!E4,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="26">
         <f>(IF(lavoratore2!F4=1,lavoratore2!E4,0))</f>
         <v>0</v>
       </c>
       <c r="D2" s="26">
-        <f>(IF(lavoratore3!F4=1,lavoratore3!E4,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="26">
-        <f>(IF(lavoratore4!F4=1,lavoratore4!E4,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12692,8 +12677,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="26">
-        <f>(IF(lavoratore2!F5=1,lavoratore2!E5,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="26">
         <f>(IF(lavoratore3!F5=1,lavoratore3!E5,0))</f>
@@ -13053,6 +13037,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="26">
+        <f>(IF(lavoratore3!F22=1,lavoratore3!E22,0))</f>
         <v>0</v>
       </c>
       <c r="E20" s="26">
@@ -13128,6 +13113,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="26">
+        <f>(IF(lavoratore1!F26=1,lavoratore1!E26,0))</f>
         <v>0</v>
       </c>
       <c r="C24" s="26">
@@ -13282,6 +13268,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="26">
+        <f>(IF(lavoratore3!F33=1,lavoratore3!E33,0))</f>
         <v>0</v>
       </c>
       <c r="E31" s="26">
@@ -14730,7 +14717,7 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -14756,7 +14743,7 @@
       </c>
       <c r="E1" s="8" t="str">
         <f>info!C5</f>
-        <v>Oliviero</v>
+        <v>Olivieri</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14764,20 +14751,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="26">
-        <f>lavoratore1!H4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="26">
-        <f>lavoratore2!H4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="26">
-        <f>lavoratore3!H4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="26">
-        <f>lavoratore4!H4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14789,16 +14772,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="26">
-        <f>lavoratore2!H5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="26">
-        <f>lavoratore3!H5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="26">
-        <f>lavoratore4!H5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14806,19 +14786,15 @@
         <v>18</v>
       </c>
       <c r="B4" s="26">
-        <f>lavoratore1!H6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="26">
-        <f>lavoratore2!H6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="26">
-        <f>lavoratore3!H6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="26">
-        <f>lavoratore4!H6</f>
         <v>0</v>
       </c>
     </row>
@@ -14848,16 +14824,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="26">
-        <f>lavoratore1!H8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="26">
-        <f>lavoratore2!H8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="26">
-        <f>lavoratore3!H8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="26">
         <f>lavoratore4!H8</f>
@@ -14869,20 +14842,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="26">
-        <f>lavoratore1!H9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="26">
-        <f>lavoratore2!H9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="26">
-        <f>lavoratore3!H9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="26">
-        <f>lavoratore4!H9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17028,7 +16997,7 @@
       </c>
       <c r="E1" s="8" t="str">
         <f>info!C5</f>
-        <v>Oliviero</v>
+        <v>Olivieri</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17037,19 +17006,19 @@
       </c>
       <c r="B2" s="26">
         <f>SUM(riassuntoOreNoProgetto!B2,riassuntoOreProgetto!B2)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="26">
         <f>SUM(riassuntoOreNoProgetto!C2,riassuntoOreProgetto!C2)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="26">
         <f>SUM(riassuntoOreNoProgetto!D2,riassuntoOreProgetto!D2)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="26">
         <f>SUM(riassuntoOreNoProgetto!E2,riassuntoOreProgetto!E2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -17065,11 +17034,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="26">
-        <v>0</v>
+        <f>SUM(riassuntoOreNoProgetto!D3,riassuntoOreProgetto!D3)</f>
+        <v>1</v>
       </c>
       <c r="E3" s="26">
         <f>SUM(riassuntoOreNoProgetto!E3,riassuntoOreProgetto!E3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -17078,15 +17048,15 @@
       </c>
       <c r="B4" s="26">
         <f>SUM(riassuntoOreNoProgetto!B4,riassuntoOreProgetto!B4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(riassuntoOreNoProgetto!C4,riassuntoOreProgetto!C4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="26">
         <f>SUM(riassuntoOreNoProgetto!D4,riassuntoOreProgetto!D4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="26">
         <f>SUM(riassuntoOreNoProgetto!E4,riassuntoOreProgetto!E4)</f>
@@ -17120,15 +17090,15 @@
       </c>
       <c r="B6" s="26">
         <f>SUM(riassuntoOreNoProgetto!B6,riassuntoOreProgetto!B6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="26">
         <f>SUM(riassuntoOreNoProgetto!C6,riassuntoOreProgetto!C6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="26">
         <f>SUM(riassuntoOreNoProgetto!D6,riassuntoOreProgetto!D6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="26">
         <f>SUM(riassuntoOreNoProgetto!E6,riassuntoOreProgetto!E6)</f>
@@ -17141,18 +17111,19 @@
       </c>
       <c r="B7" s="26">
         <f>SUM(riassuntoOreNoProgetto!B7,riassuntoOreProgetto!B7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="26">
-        <v>0</v>
+        <f>SUM(riassuntoOreNoProgetto!C7,riassuntoOreProgetto!C7)</f>
+        <v>3</v>
       </c>
       <c r="D7" s="26">
         <f>SUM(riassuntoOreNoProgetto!D7,riassuntoOreProgetto!D7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="26">
         <f>SUM(riassuntoOreNoProgetto!E7,riassuntoOreProgetto!E7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17168,6 +17139,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="26">
+        <f>SUM(riassuntoOreNoProgetto!D8,riassuntoOreProgetto!D8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="26">
@@ -17213,6 +17185,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="26">
+        <f>SUM(riassuntoOreNoProgetto!E10,riassuntoOreProgetto!E10)</f>
         <v>0</v>
       </c>
     </row>
@@ -17221,12 +17194,15 @@
         <v>25</v>
       </c>
       <c r="B11" s="26">
+        <f>SUM(riassuntoOreNoProgetto!B11,riassuntoOreProgetto!B11)</f>
         <v>0</v>
       </c>
       <c r="C11" s="26">
+        <f>SUM(riassuntoOreNoProgetto!C11,riassuntoOreProgetto!C11)</f>
         <v>0</v>
       </c>
       <c r="D11" s="26">
+        <f>SUM(riassuntoOreNoProgetto!D11,riassuntoOreProgetto!D11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="26">
@@ -17247,6 +17223,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="26">
+        <f>SUM(riassuntoOreNoProgetto!D12,riassuntoOreProgetto!D12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="26">
@@ -19094,7 +19071,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -19167,7 +19144,7 @@
       </c>
       <c r="B4" s="18">
         <f>SUM(riassuntoOreComplete!B2:B99)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -19190,7 +19167,7 @@
       </c>
       <c r="B5" s="24">
         <f>SUM(riassuntoOreComplete!C2:C99)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -19236,7 +19213,7 @@
       </c>
       <c r="B7" s="24">
         <f>SUM(riassuntoOreComplete!E2:E99)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -19325,7 +19302,7 @@
     <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" s="22">
         <f>SUM(B4:B7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="7"/>
@@ -19416,7 +19393,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -19460,7 +19437,7 @@
       </c>
       <c r="B4" s="18">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -19470,7 +19447,7 @@
       </c>
       <c r="B5" s="24">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -19480,7 +19457,7 @@
       </c>
       <c r="B6" s="24">
         <f>SUM(riassuntoOreProgetto!D2:D99)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1">
@@ -19507,7 +19484,7 @@
     <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" s="22">
         <f>SUM(B4:B7)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B12" s="23"/>
     </row>
@@ -19523,7 +19500,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="B39:I40"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -19572,7 +19549,7 @@
       </c>
       <c r="B4" s="18">
         <f>SUM(riassuntoOreNoProgetto!B2:B99)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7"/>
     </row>
@@ -19583,7 +19560,7 @@
       </c>
       <c r="B5" s="18">
         <f>SUM(riassuntoOreNoProgetto!C2:C99)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -19594,7 +19571,7 @@
       </c>
       <c r="B6" s="18">
         <f>SUM(riassuntoOreNoProgetto!D2:D99)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7"/>
     </row>
@@ -19605,7 +19582,7 @@
       </c>
       <c r="B7" s="18">
         <f>SUM(riassuntoOreNoProgetto!E2:E99)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7"/>
     </row>
@@ -19634,7 +19611,7 @@
     <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" s="22">
         <f>SUM(B4:B7)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="7"/>
@@ -21043,8 +21020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
